--- a/Data/EC/NIT-9000950073.xlsx
+++ b/Data/EC/NIT-9000950073.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AF2F0B9-4271-4326-AAAE-6B0181B26D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B24BC6-D69C-44F8-9F69-8D672D733786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AAE64FFF-A1AC-4720-A3B8-3AB8B2EFFA02}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5013B5BD-94B7-4B35-BAE5-4677A2A5741F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,121 +71,121 @@
     <t>RICARDO JOSE PEÑA MARTINEZ</t>
   </si>
   <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -284,7 +284,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -297,9 +299,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,23 +499,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,10 +543,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3286BD-8777-9836-303D-0243A2A3CA0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5DB740-75E0-08D8-5A4F-156116E4DF87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23D1019-4A60-4CE7-A47A-1D3B7514F327}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F4D9E3-CC56-45EF-B719-9105DDB58979}">
   <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1128,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>77334</v>
+        <v>80000</v>
       </c>
       <c r="G16" s="18">
         <v>2000000</v>
@@ -2002,7 +2002,7 @@
         <v>49</v>
       </c>
       <c r="F54" s="24">
-        <v>80000</v>
+        <v>77334</v>
       </c>
       <c r="G54" s="24">
         <v>2000000</v>

--- a/Data/EC/NIT-9000950073.xlsx
+++ b/Data/EC/NIT-9000950073.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B24BC6-D69C-44F8-9F69-8D672D733786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{136D8653-A36C-40FB-9ABD-F7E5F65A415E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5013B5BD-94B7-4B35-BAE5-4677A2A5741F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C3A8F280-C6E0-448A-AF8B-75F4E8D8A6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -284,9 +284,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -299,7 +297,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -493,29 +493,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,19 +534,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5DB740-75E0-08D8-5A4F-156116E4DF87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E23DF38-55CB-49A4-8228-5C1A7351B1E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F4D9E3-CC56-45EF-B719-9105DDB58979}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405E0FE7-1120-4389-923B-B99D64FC9F60}">
   <dimension ref="B2:J60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -973,49 +979,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1023,7 +1029,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9000950073</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>3117334</v>
       </c>
@@ -1124,18 +1130,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G16" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1147,18 +1153,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G17" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G17" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1170,18 +1176,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G18" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1193,18 +1199,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G19" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1216,18 +1222,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G20" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1239,18 +1245,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G21" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G21" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1262,18 +1268,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1285,18 +1291,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G23" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G23" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1308,18 +1314,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1331,18 +1337,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1354,18 +1360,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1377,18 +1383,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1400,18 +1406,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1423,18 +1429,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1446,18 +1452,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1469,18 +1475,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1492,18 +1498,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1515,18 +1521,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1538,18 +1544,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1561,18 +1567,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G35" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1584,18 +1590,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1607,18 +1613,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1630,18 +1636,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1653,18 +1659,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1676,18 +1682,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1699,18 +1705,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1722,18 +1728,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1745,18 +1751,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G43" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1768,18 +1774,18 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1791,18 +1797,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G45" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1814,18 +1820,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1837,18 +1843,18 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G47" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1860,18 +1866,18 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1883,18 +1889,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G49" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1906,18 +1912,18 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G50" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1929,18 +1935,18 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G51" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -1952,18 +1958,18 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G52" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -1975,47 +1981,47 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>80000</v>
+      </c>
+      <c r="G53" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="22" t="s">
+      <c r="B54" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="26">
         <v>77334</v>
       </c>
-      <c r="G54" s="24">
-        <v>2000000</v>
-      </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="26"/>
+      <c r="G54" s="26">
+        <v>2000000</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="28"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="32"/>
+      <c r="C59" s="34"/>
       <c r="H59" s="1" t="s">
         <v>59</v>
       </c>
@@ -2023,10 +2029,10 @@
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="32"/>
+      <c r="C60" s="34"/>
       <c r="H60" s="1" t="s">
         <v>60</v>
       </c>
